--- a/道具表.xlsx
+++ b/道具表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857455FA-1627-4F2B-BA70-6DD20933835D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A7CF1F-A328-4A4A-BFDE-AFB4153AC0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32610" yWindow="5340" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32610" yWindow="5265" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,15 +373,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,8 +391,11 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -398,8 +405,11 @@
       <c r="C2">
         <v>1</v>
       </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -408,6 +418,9 @@
       </c>
       <c r="C3">
         <v>1</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/道具表.xlsx
+++ b/道具表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A7CF1F-A328-4A4A-BFDE-AFB4153AC0FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE89B71-C034-42A5-9F4B-2ACAB03687EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32610" yWindow="5265" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,14 @@
   </si>
   <si>
     <t>品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上衣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -423,6 +431,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>101</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
